--- a/TradingModel_TotalOpenPosition.xlsx
+++ b/TradingModel_TotalOpenPosition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EachCalculateProfit</t>
+          <t>PositionSize</t>
         </is>
       </c>
     </row>
@@ -460,22 +455,16 @@
       <c r="C2" t="n">
         <v>220</v>
       </c>
-      <c r="D2" t="n">
-        <v>-5973</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-5920</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3141</v>
+        <v>3035</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-5899.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3189</v>
+        <v>3141</v>
       </c>
       <c r="C5" t="n">
         <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-6345</v>
       </c>
     </row>
     <row r="6">
@@ -511,41 +494,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3504</v>
+        <v>3189</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5934</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6170</v>
+        <v>3504</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-6201</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>6411</v>
       </c>
       <c r="C8" t="n">
         <v>26</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5980</v>
       </c>
     </row>
   </sheetData>

--- a/TradingModel_TotalOpenPosition.xlsx
+++ b/TradingModel_TotalOpenPosition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3033</v>
+        <v>2436</v>
       </c>
       <c r="C3" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3141</v>
+        <v>3035</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3189</v>
+        <v>3141</v>
       </c>
       <c r="C6" t="n">
         <v>27</v>
@@ -505,20 +505,42 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3504</v>
+        <v>3189</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6104</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
         <v>6411</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
     </row>

--- a/TradingModel_TotalOpenPosition.xlsx
+++ b/TradingModel_TotalOpenPosition.xlsx
@@ -447,95 +447,95 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1711</v>
+        <v>2436</v>
       </c>
       <c r="C2" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2436</v>
+        <v>3035</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3033</v>
+        <v>3122</v>
       </c>
       <c r="C4" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3035</v>
+        <v>3141</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3141</v>
+        <v>3588</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3189</v>
+        <v>6104</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>3588</v>
+        <v>6138</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>6104</v>
+        <v>6271</v>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>6411</v>

--- a/TradingModel_TotalOpenPosition.xlsx
+++ b/TradingModel_TotalOpenPosition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,21 +450,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2436</v>
+        <v>2314</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3035</v>
+        <v>2436</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3122</v>
+        <v>3035</v>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -483,65 +483,98 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3141</v>
+        <v>3122</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3588</v>
+        <v>3141</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>6104</v>
+        <v>3221</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6138</v>
+        <v>3588</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>6271</v>
+        <v>6104</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
+        <v>6138</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
         <v>6411</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8289</v>
+      </c>
+      <c r="C13" t="n">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
